--- a/excel Models/黄金增强策略.xlsx
+++ b/excel Models/黄金增强策略.xlsx
@@ -195,10 +195,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="###,###,##0.000"/>
-    <numFmt numFmtId="182" formatCode="###,###,##0"/>
-    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="###,###,##0.000"/>
+    <numFmt numFmtId="178" formatCode="###,###,##0"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -273,13 +273,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
@@ -297,13 +297,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
@@ -331,77 +331,77 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>287.75</v>
+        <v>283.85000000000002</v>
         <stp/>
         <stp>AU1612.SHF</stp>
         <stp>Bid_Price1</stp>
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>287.8</v>
+        <v>283.90000000000003</v>
         <stp/>
         <stp>AU1612.SHF</stp>
         <stp>Ask_Price1</stp>
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>2.8530000000000002</v>
+        <v>2.8130000000000002</v>
         <stp/>
         <stp>518800.SH</stp>
         <stp>Bid_Price1</stp>
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>2.8740000000000001</v>
+        <v>2.8290000000000002</v>
         <stp/>
         <stp>518880.SH</stp>
         <stp>Bid_Price1</stp>
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2.8639999999999999</v>
+        <v>2.8180000000000001</v>
         <stp/>
         <stp>159934.SZ</stp>
         <stp>Bid_Price1</stp>
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>2.8650000000000002</v>
+        <v>2.819</v>
         <stp/>
         <stp>159934.SZ</stp>
         <stp>Ask_Price1</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>2.875</v>
+        <v>2.83</v>
         <stp/>
         <stp>518880.SH</stp>
         <stp>Ask_Price1</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>2.8540000000000001</v>
+        <v>2.8149999999999999</v>
         <stp/>
         <stp>518800.SH</stp>
         <stp>Ask_Price1</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>2.87</v>
+        <v>2.819</v>
         <stp/>
         <stp>159937.SZ</stp>
         <stp>Bid_Price1</stp>
         <tr r="E4" s="1"/>
       </tp>
       <tp>
-        <v>2.8730000000000002</v>
+        <v>2.82</v>
         <stp/>
         <stp>159937.SZ</stp>
         <stp>Ask_Price1</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>2.8690000000000002</v>
+        <v>2.8210000000000002</v>
         <stp/>
         <stp>159934.SZ</stp>
         <stp>IOPV</stp>
@@ -409,7 +409,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>2.8850000000000002</v>
+        <v>2.8380000000000001</v>
         <stp/>
         <stp>159937.SZ</stp>
         <stp>IOPV</stp>
@@ -417,21 +417,21 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>287.11</v>
+        <v>283.45999999999998</v>
         <stp/>
         <stp>AU9999</stp>
         <stp>Bid_Price1</stp>
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>287.39</v>
+        <v>283.5</v>
         <stp/>
         <stp>AU9999</stp>
         <stp>Ask_Price1</stp>
         <tr r="B9" s="1"/>
       </tp>
       <tp>
-        <v>2.8610000000000002</v>
+        <v>2.8159999999999998</v>
         <stp/>
         <stp>518800.SH</stp>
         <stp>IOPV</stp>
@@ -439,7 +439,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>2.8810000000000002</v>
+        <v>2.8340000000000001</v>
         <stp/>
         <stp>518880.SH</stp>
         <stp>IOPV</stp>
@@ -447,56 +447,56 @@
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>678900</v>
+        <v>57200</v>
         <stp/>
         <stp>159937.SZ</stp>
         <stp>Ask_Volume1</stp>
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>121400</v>
+        <v>523500</v>
         <stp/>
         <stp>159934.SZ</stp>
         <stp>Ask_Volume1</stp>
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>536800</v>
+        <v>72700</v>
         <stp/>
         <stp>518880.SH</stp>
         <stp>Ask_Volume1</stp>
         <tr r="C2" s="1"/>
       </tp>
       <tp>
-        <v>185000</v>
+        <v>215000</v>
         <stp/>
         <stp>518800.SH</stp>
         <stp>Ask_Volume1</stp>
         <tr r="C3" s="1"/>
       </tp>
       <tp>
-        <v>10300</v>
+        <v>210000</v>
         <stp/>
         <stp>518800.SH</stp>
         <stp>Bid_Volume1</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>74800</v>
+        <v>641700</v>
         <stp/>
         <stp>518880.SH</stp>
         <stp>Bid_Volume1</stp>
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>74200</v>
+        <v>815700</v>
         <stp/>
         <stp>159937.SZ</stp>
         <stp>Bid_Volume1</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>200000</v>
+        <v>96400</v>
         <stp/>
         <stp>159934.SZ</stp>
         <stp>Bid_Volume1</stp>
@@ -795,7 +795,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -845,27 +845,27 @@
       </c>
       <c r="C2" s="2">
         <f>RTD("wdf.rtq",,A2,"Ask_Volume1")</f>
-        <v>536800</v>
+        <v>72700</v>
       </c>
       <c r="D2" s="3">
         <f>RTD("wdf.rtq",,A2,"Ask_Price1")</f>
-        <v>2.875</v>
+        <v>2.83</v>
       </c>
       <c r="E2" s="3">
         <f>RTD("wdf.rtq",,A2,"Bid_Price1")</f>
-        <v>2.8740000000000001</v>
+        <v>2.8290000000000002</v>
       </c>
       <c r="F2" s="4">
         <f>RTD("wdf.rtq",,A2,"Bid_Volume1")</f>
-        <v>74800</v>
+        <v>641700</v>
       </c>
       <c r="G2" s="7">
         <f>RTD("wdf.rtq", ,A2, "IOPV","RT_Price")</f>
-        <v>2.8810000000000002</v>
+        <v>2.8340000000000001</v>
       </c>
       <c r="H2" s="8">
         <f>(D2+E2)/G2/2-1</f>
-        <v>-2.2561610551891098E-3</v>
+        <v>-1.5878616796046741E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -877,27 +877,27 @@
       </c>
       <c r="C3" s="2">
         <f>RTD("wdf.rtq",,A3,"Ask_Volume1")</f>
-        <v>185000</v>
+        <v>215000</v>
       </c>
       <c r="D3" s="3">
         <f>RTD("wdf.rtq",,A3,"Ask_Price1")</f>
-        <v>2.8540000000000001</v>
+        <v>2.8149999999999999</v>
       </c>
       <c r="E3" s="3">
         <f>RTD("wdf.rtq",,A3,"Bid_Price1")</f>
-        <v>2.8530000000000002</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="F3" s="4">
         <f>RTD("wdf.rtq",,A3,"Bid_Volume1")</f>
-        <v>10300</v>
+        <v>210000</v>
       </c>
       <c r="G3" s="7">
         <f>RTD("wdf.rtq", ,A3, "IOPV","RT_Price")</f>
-        <v>2.8610000000000002</v>
+        <v>2.8159999999999998</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" ref="H3:H5" si="0">(D3+E3)/G3/2-1</f>
-        <v>-2.621461027612626E-3</v>
+        <v>-7.1022727272718189E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -909,27 +909,27 @@
       </c>
       <c r="C4" s="2">
         <f>RTD("wdf.rtq",,A4,"Ask_Volume1")</f>
-        <v>678900</v>
+        <v>57200</v>
       </c>
       <c r="D4" s="3">
         <f>RTD("wdf.rtq",,A4,"Ask_Price1")</f>
-        <v>2.8730000000000002</v>
+        <v>2.82</v>
       </c>
       <c r="E4" s="3">
         <f>RTD("wdf.rtq",,A4,"Bid_Price1")</f>
-        <v>2.87</v>
+        <v>2.819</v>
       </c>
       <c r="F4" s="4">
         <f>RTD("wdf.rtq",,A4,"Bid_Volume1")</f>
-        <v>74200</v>
+        <v>815700</v>
       </c>
       <c r="G4" s="7">
         <f>RTD("wdf.rtq", ,A4, "IOPV","RT_Price")</f>
-        <v>2.8850000000000002</v>
+        <v>2.8380000000000001</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="0"/>
-        <v>-4.6793760831889131E-3</v>
+        <v>-6.5186751233263784E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -941,27 +941,27 @@
       </c>
       <c r="C5" s="2">
         <f>RTD("wdf.rtq",,A5,"Ask_Volume1")</f>
-        <v>121400</v>
+        <v>523500</v>
       </c>
       <c r="D5" s="3">
         <f>RTD("wdf.rtq",,A5,"Ask_Price1")</f>
-        <v>2.8650000000000002</v>
+        <v>2.819</v>
       </c>
       <c r="E5" s="3">
         <f>RTD("wdf.rtq",,A5,"Bid_Price1")</f>
-        <v>2.8639999999999999</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="F5" s="4">
         <f>RTD("wdf.rtq",,A5,"Bid_Volume1")</f>
-        <v>200000</v>
+        <v>96400</v>
       </c>
       <c r="G5" s="7">
         <f>RTD("wdf.rtq", ,A5, "IOPV","RT_Price")</f>
-        <v>2.8690000000000002</v>
+        <v>2.8210000000000002</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>-1.5684907633322087E-3</v>
+        <v>-8.862105636299189E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -970,11 +970,11 @@
       </c>
       <c r="B8" s="1">
         <f>RTD("wdf.rtq",,A8,"Ask_Price1")</f>
-        <v>287.8</v>
+        <v>283.90000000000003</v>
       </c>
       <c r="C8" s="1">
         <f>RTD("wdf.rtq",,A8,"Bid_Price1")</f>
-        <v>287.75</v>
+        <v>283.85000000000002</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
@@ -989,18 +989,18 @@
       </c>
       <c r="B9" s="1">
         <f>RTD("wdf.rtq",,A9,"Ask_Price1")</f>
-        <v>287.39</v>
+        <v>283.5</v>
       </c>
       <c r="C9" s="1">
         <f>RTD("wdf.rtq",,A9,"Bid_Price1")</f>
-        <v>287.11</v>
+        <v>283.45999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="9">
         <f ca="1">TODAY()</f>
-        <v>42598</v>
+        <v>42612</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="F10">
         <f ca="1">F8-F9</f>
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B12" s="1">
         <f>(B9+C9)/2/'AU9999 vs AU9995'!G2</f>
-        <v>287.0267197823552</v>
+        <v>283.25965021375828</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B13" s="5">
         <f>(B8+C8)/2/B12-1</f>
-        <v>2.607005432149867E-3</v>
+        <v>2.1723877219270715E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B14" s="5">
         <f ca="1">B13*365/F10</f>
-        <v>7.8641072953281113E-3</v>
+        <v>7.4104814813400104E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
